--- a/StructureDefinition-pco-personal-priorities-organizer.xlsx
+++ b/StructureDefinition-pco-personal-priorities-organizer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-personal-priorities-organizer.xlsx
+++ b/StructureDefinition-pco-personal-priorities-organizer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-personal-priorities-organizer.xlsx
+++ b/StructureDefinition-pco-personal-priorities-organizer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-personal-priorities-organizer.xlsx
+++ b/StructureDefinition-pco-personal-priorities-organizer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-personal-priorities-organizer.xlsx
+++ b/StructureDefinition-pco-personal-priorities-organizer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-personal-priorities-organizer.xlsx
+++ b/StructureDefinition-pco-personal-priorities-organizer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-personal-priorities-organizer.xlsx
+++ b/StructureDefinition-pco-personal-priorities-organizer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:42:09+00:00</t>
+    <t>2025-01-18T20:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -875,7 +875,7 @@
     <t>List.entry.item</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-profile|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-barrier|http://hl7.org/fhir/us/pco/StructureDefinition/pco-care-tradeoff)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-profile|http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-priority|http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-barrier|http://hl7.org/fhir/us/pco/StructureDefinition/pco-care-tradeoff)
 </t>
   </si>
   <si>

--- a/StructureDefinition-pco-personal-priorities-organizer.xlsx
+++ b/StructureDefinition-pco-personal-priorities-organizer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-personal-priorities-organizer.xlsx
+++ b/StructureDefinition-pco-personal-priorities-organizer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-personal-priorities-organizer.xlsx
+++ b/StructureDefinition-pco-personal-priorities-organizer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -875,7 +875,7 @@
     <t>List.entry.item</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-profile|http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-priority|http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-barrier|http://hl7.org/fhir/us/pco/StructureDefinition/pco-care-tradeoff)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-profile|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-barrier|http://hl7.org/fhir/us/pco/StructureDefinition/pco-care-tradeoff)
 </t>
   </si>
   <si>

--- a/StructureDefinition-pco-personal-priorities-organizer.xlsx
+++ b/StructureDefinition-pco-personal-priorities-organizer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-personal-priorities-organizer.xlsx
+++ b/StructureDefinition-pco-personal-priorities-organizer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Personal Priorities Organizer is used to represent a set of person-centered goals, preferences or care experiences in a preferred ranked order.</t>
+    <t>Personal Priorities Organizer is used to represent a set of person-centered goals, what matters assessment, or barriers in a preferred ranked order.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -875,7 +875,7 @@
     <t>List.entry.item</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-profile|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-barrier|http://hl7.org/fhir/us/pco/StructureDefinition/pco-care-tradeoff)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-profile|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-barrier)
 </t>
   </si>
   <si>
@@ -1248,7 +1248,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="193.2578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
